--- a/PYTHON/EstudiantesAzarNombres/grado 10 2024.xlsx
+++ b/PYTHON/EstudiantesAzarNombres/grado 10 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Obsidian\DOCENCIA\PROGRAMACION\PYTHON\EstudiantesAzarNombres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Mi unidad\Obsidian\PROGRAMACION\PYTHON\EstudiantesAzarNombres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480531CE-23F2-4CD8-AFC2-0D2696020EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE38D3-5B92-4592-9353-0DA0A7760A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EA8F0CAF-ECDA-4CE6-BFFB-E85DBA76ADF9}"/>
   </bookViews>
@@ -36,91 +36,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Barrios Carvajal Wilmar Andres</t>
-  </si>
-  <si>
-    <t>Jaramillo Ariza Juan Luis</t>
-  </si>
-  <si>
-    <t>Parra Durango Emmanuel</t>
-  </si>
-  <si>
-    <t>Parra Peñate Luisa Fernanda</t>
-  </si>
-  <si>
-    <t>Valencia Calderon Carolina</t>
-  </si>
-  <si>
-    <t>Angel Rosario Rosmi</t>
-  </si>
-  <si>
-    <t>Ariza Toro Yoider Alexander</t>
-  </si>
-  <si>
-    <t>Baron Chaverra Edier Andres</t>
-  </si>
-  <si>
-    <t>Basilio Vasquez Viviana Maria</t>
-  </si>
-  <si>
-    <t>Bedoya Cardona Emanuela</t>
-  </si>
-  <si>
-    <t>Castebonde Garcia Ezequiel</t>
-  </si>
-  <si>
-    <t>Cordoba Perez Yaxen</t>
-  </si>
-  <si>
-    <t>Diaz Alvarez Jhonatan David</t>
-  </si>
-  <si>
-    <t>Echavarria Gaviria Yiris Yirlei</t>
-  </si>
-  <si>
-    <t>Jimenez Ruiz Darlenis</t>
-  </si>
-  <si>
-    <t>Lopez Borja Taliana</t>
-  </si>
-  <si>
-    <t>Mercado Pertuz Nayidis</t>
-  </si>
-  <si>
-    <t>Moreno Guzman Juan Estiven</t>
-  </si>
-  <si>
-    <t>Nestra Matias Wilsher Andres</t>
-  </si>
-  <si>
-    <t>Peñata Florez Luisa Fernanda</t>
-  </si>
-  <si>
-    <t>perea baleta lina marcela</t>
-  </si>
-  <si>
-    <t>Perez Saldoval Mario Andres</t>
-  </si>
-  <si>
-    <t>Romero Banquet Aider</t>
-  </si>
-  <si>
-    <t>Teran Marquez Freidy Andres</t>
-  </si>
-  <si>
-    <t>Vizcaino Machado Luis Alberto</t>
+    <t>Basilio Anaya Liliana Cristina</t>
+  </si>
+  <si>
+    <t>Ordoñez Pereira Merlys</t>
+  </si>
+  <si>
+    <t>Soto Correa Emmanuel</t>
+  </si>
+  <si>
+    <t>Artunduaga Sierra Nataly Sofia</t>
+  </si>
+  <si>
+    <t>Bertel Padilla Valentina Alejandra</t>
+  </si>
+  <si>
+    <t>Chima Andrade Jose Angel</t>
+  </si>
+  <si>
+    <t>Cuadrado Ramos Faber Daniel</t>
+  </si>
+  <si>
+    <t>Fabra De Hoyos Yiceth Milena</t>
+  </si>
+  <si>
+    <t>Gonzalez Perez Brenda Lucia</t>
+  </si>
+  <si>
+    <t>Guerrero Perez Janier Mauricio</t>
+  </si>
+  <si>
+    <t>Jimenez Florez Lilibed</t>
+  </si>
+  <si>
+    <t>Lazaro Benitez Cristian Dario</t>
+  </si>
+  <si>
+    <t>Lopez Oviedo Juan Camilo</t>
+  </si>
+  <si>
+    <t>Lopez Roqueme Luis Felipe</t>
+  </si>
+  <si>
+    <t>Marin Restrepo David Stiven</t>
+  </si>
+  <si>
+    <t>Martinez Basilio Michel Natalia</t>
+  </si>
+  <si>
+    <t>Martinez Martinez Maira Alejandra</t>
+  </si>
+  <si>
+    <t>Matias Manchego Elias</t>
+  </si>
+  <si>
+    <t>Mejia Alean Sebastian Andres</t>
+  </si>
+  <si>
+    <t>Mendez Oliveros Ana Isabel</t>
+  </si>
+  <si>
+    <t>Negrete Florez Cristina Isabel</t>
+  </si>
+  <si>
+    <t>Nestra Baron Arnidis</t>
+  </si>
+  <si>
+    <t>Osorio Florez Camilo Andres</t>
+  </si>
+  <si>
+    <t>Padilla Santana Laudith Dayana</t>
+  </si>
+  <si>
+    <t>Peñate Pacheco Fabiana Del Pilar</t>
+  </si>
+  <si>
+    <t>Ramos Almario Kiara Daniela</t>
+  </si>
+  <si>
+    <t>Regino Roqueme Eliana Sofia</t>
+  </si>
+  <si>
+    <t>Ruiz Martinez Shara Daniela</t>
+  </si>
+  <si>
+    <t>Tordecilla Perez Ludis Yineth</t>
+  </si>
+  <si>
+    <t>Toro Torreglosa Marlon Camilo</t>
+  </si>
+  <si>
+    <t>Torreglosa Arteaga Valeri Alejandra</t>
+  </si>
+  <si>
+    <t>Vertel Quintero Mateo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +158,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -160,31 +181,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -199,10 +220,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,146 +559,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB6EC6-DA1D-45BA-9DFC-7308E0DD06AE}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" thickTop="1"/>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>